--- a/data/checked/china/heilongjiang/heilongjiangCaseStatistics_20200319.xlsx
+++ b/data/checked/china/heilongjiang/heilongjiangCaseStatistics_20200319.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\checked\china\heilongjiang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077564E6-85B4-4FDF-8CAC-3B632EBCC9CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034C1064-D979-495B-8488-0585CBFD7962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9415" uniqueCount="3304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9415" uniqueCount="3305">
   <si>
     <t>统计级别</t>
   </si>
@@ -10304,10 +10304,6 @@
   </si>
   <si>
     <t>区县级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区待确认</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -10325,6 +10321,14 @@
   </si>
   <si>
     <t>http://hlj.people.com.cn/n2/2020/0320/c220024-33890396.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10792,47 +10796,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.90625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="12.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="26.6328125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="31.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="12.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.64453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.64453125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="31.87890625" style="13" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="65.1796875" style="12" customWidth="1"/>
-    <col min="23" max="23" width="18.6328125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="65.17578125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="18.64453125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.05859375" style="12" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="12"/>
+    <col min="40" max="40" width="5.05859375" style="12" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="16" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="16" customFormat="1" ht="15.75">
       <c r="A1" s="14" t="s">
         <v>3251</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>2</v>
+        <v>3303</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>3255</v>
@@ -10992,10 +10996,10 @@
         <v>3290</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W2" s="18">
         <v>43910.336111111108</v>
@@ -11004,7 +11008,7 @@
         <v>3291</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z2" s="18">
         <v>43910.361111111109</v>
@@ -11069,10 +11073,10 @@
         <v>3290</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W3" s="18">
         <v>43910.336111111108</v>
@@ -11081,7 +11085,7 @@
         <v>3291</v>
       </c>
       <c r="Y3" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z3" s="18">
         <v>43910.361111111109</v>
@@ -11143,10 +11147,10 @@
         <v>3290</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V4" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W4" s="18">
         <v>43910.336111111108</v>
@@ -11155,7 +11159,7 @@
         <v>3291</v>
       </c>
       <c r="Y4" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z4" s="18">
         <v>43910.361111111109</v>
@@ -11214,10 +11218,10 @@
         <v>3290</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W5" s="18">
         <v>43910.336111111108</v>
@@ -11226,7 +11230,7 @@
         <v>3291</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z5" s="18">
         <v>43910.361111111109</v>
@@ -11285,10 +11289,10 @@
         <v>3290</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W6" s="18">
         <v>43910.336111111108</v>
@@ -11297,7 +11301,7 @@
         <v>3291</v>
       </c>
       <c r="Y6" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z6" s="18">
         <v>43910.361111111109</v>
@@ -11362,10 +11366,10 @@
         <v>3290</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W7" s="18">
         <v>43910.336111111108</v>
@@ -11374,7 +11378,7 @@
         <v>3291</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z7" s="18">
         <v>43910.361111111109</v>
@@ -11436,10 +11440,10 @@
         <v>3290</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W8" s="18">
         <v>43910.336111111108</v>
@@ -11448,7 +11452,7 @@
         <v>3291</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z8" s="18">
         <v>43910.361111111109</v>
@@ -11507,10 +11511,10 @@
         <v>3290</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W9" s="18">
         <v>43910.336111111108</v>
@@ -11519,7 +11523,7 @@
         <v>3291</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z9" s="18">
         <v>43910.361111111109</v>
@@ -11578,10 +11582,10 @@
         <v>3290</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W10" s="18">
         <v>43910.336111111108</v>
@@ -11590,7 +11594,7 @@
         <v>3291</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z10" s="18">
         <v>43910.361111111109</v>
@@ -11649,10 +11653,10 @@
         <v>3290</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W11" s="18">
         <v>43910.336111111108</v>
@@ -11661,7 +11665,7 @@
         <v>3291</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z11" s="18">
         <v>43910.361111111109</v>
@@ -11720,10 +11724,10 @@
         <v>3290</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W12" s="18">
         <v>43910.336111111108</v>
@@ -11732,7 +11736,7 @@
         <v>3291</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z12" s="18">
         <v>43910.361111111109</v>
@@ -11791,10 +11795,10 @@
         <v>3290</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W13" s="18">
         <v>43910.336111111108</v>
@@ -11803,7 +11807,7 @@
         <v>3291</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z13" s="18">
         <v>43910.361111111109</v>
@@ -11865,10 +11869,10 @@
         <v>3290</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W14" s="18">
         <v>43910.336111111108</v>
@@ -11877,7 +11881,7 @@
         <v>3291</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z14" s="18">
         <v>43910.361111111109</v>
@@ -11936,10 +11940,10 @@
         <v>3290</v>
       </c>
       <c r="U15" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W15" s="18">
         <v>43910.336111111108</v>
@@ -11948,7 +11952,7 @@
         <v>3291</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z15" s="18">
         <v>43910.361111111109</v>
@@ -12007,10 +12011,10 @@
         <v>3290</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W16" s="18">
         <v>43910.336111111108</v>
@@ -12019,7 +12023,7 @@
         <v>3291</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z16" s="18">
         <v>43910.361111111109</v>
@@ -12069,7 +12073,7 @@
         <v>3295</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="I17" s="12">
         <v>1</v>
@@ -12081,10 +12085,10 @@
         <v>3290</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="W17" s="18">
         <v>43910.336111111108</v>
@@ -12093,7 +12097,7 @@
         <v>3291</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="Z17" s="18">
         <v>43910.361111111109</v>
@@ -12144,7 +12148,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16 H18:H1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12187,10 +12191,10 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
